--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>71.89107</v>
-      </c>
-      <c r="C2" t="n">
-        <v>94.15015</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.36429</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04469</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33.65711</v>
-      </c>
-      <c r="G2" t="n">
-        <v>112.74288</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.19315</v>
-      </c>
-      <c r="I2" t="n">
-        <v>47.68719</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17.85671</v>
-      </c>
-      <c r="K2" t="n">
-        <v>73.13342</v>
-      </c>
-      <c r="L2" t="n">
-        <v>23.5889</v>
-      </c>
-      <c r="M2" t="n">
-        <v>23.97622</v>
-      </c>
-      <c r="N2" t="n">
-        <v>119.59046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>62.44279</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8.96006</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>98.12774</v>
-      </c>
-      <c r="R2" t="n">
-        <v>37.19156</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>17.17278</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.3909</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.20912</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10.24471</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.04056</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>59.54648</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>162.47676</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>46.50136</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23.60936</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.15356</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1910.75</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>154.65141</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.16484</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>49.45709</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>120.72643</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>141.01005</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.11713</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>42.8145</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>87.48909</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>46.27196</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>79.05587</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.05147</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>107.21929</v>
-      </c>
-      <c r="C3" t="n">
-        <v>170.83605</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.52876</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.12414</v>
-      </c>
-      <c r="F3" t="n">
-        <v>58.17862</v>
-      </c>
-      <c r="G3" t="n">
-        <v>201.13086</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22.53842</v>
-      </c>
-      <c r="I3" t="n">
-        <v>72.29783</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32.34115</v>
-      </c>
-      <c r="K3" t="n">
-        <v>113.10602</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32.4673</v>
-      </c>
-      <c r="M3" t="n">
-        <v>39.16615</v>
-      </c>
-      <c r="N3" t="n">
-        <v>210.58512</v>
-      </c>
-      <c r="O3" t="n">
-        <v>99.5389</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11.19751</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>145.30441</v>
-      </c>
-      <c r="R3" t="n">
-        <v>56.65364</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01302</v>
-      </c>
-      <c r="T3" t="n">
-        <v>29.98385</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.18179</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.66356</v>
-      </c>
-      <c r="W3" t="n">
-        <v>16.49025</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10.80501</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>104.09139</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>243.99235</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>75.27199</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>35.36412</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.08047</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3130</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>289.93004</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.84903</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>90.33426</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>198.86451</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>229.57014</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.84863</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67.00673</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>147.20101</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>60.51826</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>104.95017</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10.50052</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>176.73666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>253.04603</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.40534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.18823</v>
-      </c>
-      <c r="F4" t="n">
-        <v>76.36518</v>
-      </c>
-      <c r="G4" t="n">
-        <v>297.82403</v>
-      </c>
-      <c r="H4" t="n">
-        <v>30.07813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>102.14934</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48.97562</v>
-      </c>
-      <c r="K4" t="n">
-        <v>183.01879</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45.98972</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54.80286</v>
-      </c>
-      <c r="N4" t="n">
-        <v>326.21469</v>
-      </c>
-      <c r="O4" t="n">
-        <v>132.21235</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14.89307</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>210.04994</v>
-      </c>
-      <c r="R4" t="n">
-        <v>74.53797</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>42.06291</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.28315</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.9225</v>
-      </c>
-      <c r="W4" t="n">
-        <v>29.1033</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12.41838</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>155.0217</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>362.97223</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>100.78517</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>72.15243</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>4686.53</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>471.87835</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.3889</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>127.70111</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>298.10427</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>327.05828</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>18.98146</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>98.20352</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>215.48182</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>74.65366</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>190.31413</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>18.55753</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
